--- a/002450_康得新/康得新.xlsx
+++ b/002450_康得新/康得新.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="465" windowWidth="25605" windowHeight="14775" activeTab="3"/>
+    <workbookView xWindow="435" yWindow="465" windowWidth="25605" windowHeight="14775" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="自由现金流" sheetId="2" r:id="rId2"/>
     <sheet name="估值" sheetId="3" r:id="rId3"/>
     <sheet name="现金流净利润比" sheetId="4" r:id="rId4"/>
-    <sheet name="应收" sheetId="7" r:id="rId5"/>
+    <sheet name="应收账款周转率" sheetId="7" r:id="rId5"/>
     <sheet name="存货" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
   <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1240,6 +1240,73 @@
   </si>
   <si>
     <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售额</t>
+    <rPh sb="0" eb="1">
+      <t>gu'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他应收款</t>
+    <rPh sb="0" eb="1">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收票据</t>
+    <rPh sb="0" eb="1">
+      <t>kou'fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款帐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款合计</t>
+    <rPh sb="0" eb="1">
+      <t>jing'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款周转率</t>
+    <rPh sb="0" eb="1">
+      <t>kou'fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan'bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款周转天数</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1366,6 +1433,1867 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>应收账款周转率!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>应收账款周转率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$G$4:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8652665926560597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3970302521249183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3415657186842211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2199598032847141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5492403085441779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.659485139004544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8899765953547369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.726195677233045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EEC-4F17-A396-5AF650E8D7DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1807296048"/>
+        <c:axId val="1807291472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1807296048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807291472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1807291472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807296048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>应收账款周转率!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>应收账款周转天数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>193.00190193583828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.1858391986782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153.74328259396117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.80263791888343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.134091756785025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.000548139556415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.495044743774706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.44623227141863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32B0-47C2-9953-0D844F953C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1806057632"/>
+        <c:axId val="1806052640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1806057632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1806052640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1806052640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1806057632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5129,8 +7057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6007,59 +7935,59 @@
         <v>0.21546882386368935</v>
       </c>
       <c r="L13" s="9">
-        <f>SUM(L4:L12)</f>
+        <f t="shared" ref="L13:Y13" si="6">SUM(L4:L12)</f>
         <v>1088394269.6199999</v>
       </c>
       <c r="M13" s="9">
-        <f>SUM(M4:M12)</f>
+        <f t="shared" si="6"/>
         <v>259399158.25999999</v>
       </c>
       <c r="N13" s="9">
-        <f>SUM(N4:N12)</f>
+        <f t="shared" si="6"/>
         <v>21607594.59</v>
       </c>
       <c r="O13" s="9">
-        <f>SUM(O4:O12)</f>
+        <f t="shared" si="6"/>
         <v>-6395930.8199999984</v>
       </c>
       <c r="P13" s="9">
-        <f>SUM(P4:P12)</f>
+        <f t="shared" si="6"/>
         <v>-629658.09</v>
       </c>
       <c r="Q13" s="9">
-        <f>SUM(Q4:Q12)</f>
+        <f t="shared" si="6"/>
         <v>-850000</v>
       </c>
       <c r="R13" s="9">
-        <f>SUM(R4:R12)</f>
+        <f t="shared" si="6"/>
         <v>2163700874.4700003</v>
       </c>
       <c r="S13" s="9">
-        <f>SUM(S4:S12)</f>
+        <f t="shared" si="6"/>
         <v>-118488186.5</v>
       </c>
       <c r="T13" s="9">
-        <f>SUM(T4:T12)</f>
+        <f t="shared" si="6"/>
         <v>19180703.309999999</v>
       </c>
       <c r="U13" s="9">
-        <f>SUM(U4:U12)</f>
+        <f t="shared" si="6"/>
         <v>-276744206.19</v>
       </c>
       <c r="V13" s="9">
-        <f>SUM(V4:V12)</f>
+        <f t="shared" si="6"/>
         <v>-1093393308.3499999</v>
       </c>
       <c r="W13" s="9">
-        <f>SUM(W4:W12)</f>
+        <f t="shared" si="6"/>
         <v>-7893001982.8500004</v>
       </c>
       <c r="X13" s="9">
-        <f>SUM(X4:X12)</f>
+        <f t="shared" si="6"/>
         <v>2468827653.9000001</v>
       </c>
       <c r="Y13" s="9">
-        <f>SUM(Y4:Y12)</f>
+        <f t="shared" si="6"/>
         <v>110146997.59</v>
       </c>
       <c r="Z13" s="9"/>
@@ -6228,16 +8156,967 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:AD13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="9">
+        <v>9150288411.3799992</v>
+      </c>
+      <c r="C4" s="9">
+        <v>105082497.23999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4865359555.0100002</v>
+      </c>
+      <c r="E4" s="9">
+        <v>114076728.54000001</v>
+      </c>
+      <c r="F4" s="9">
+        <f>C4+D4</f>
+        <v>4970442052.25</v>
+      </c>
+      <c r="G4" s="2">
+        <f>B4/((F4+F5)/2)</f>
+        <v>1.8652665926560597</v>
+      </c>
+      <c r="H4" s="1">
+        <f>360/G4</f>
+        <v>193.00190193583828</v>
+      </c>
+      <c r="I4" s="9">
+        <f>E4+K4+M4+N4+O4+P4+S4+T4+V4+W4+X4+Y4+Q4+R4+U4+Z4</f>
+        <v>1140731103.2999997</v>
+      </c>
+      <c r="J4" s="9">
+        <f>I4-F4</f>
+        <v>-3829710948.9500003</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1451738988.05</v>
+      </c>
+      <c r="L4" s="2">
+        <f>K4/E4</f>
+        <v>12.725987207294084</v>
+      </c>
+      <c r="M4" s="9">
+        <v>230568528.09999999</v>
+      </c>
+      <c r="N4" s="9">
+        <v>75728611.670000002</v>
+      </c>
+      <c r="O4" s="9">
+        <v>9105604.8300000001</v>
+      </c>
+      <c r="P4" s="9">
+        <v>-11158802.279999999</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>-629658.09</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9">
+        <v>607803022.25999999</v>
+      </c>
+      <c r="T4" s="11">
+        <v>-43194721.909999996</v>
+      </c>
+      <c r="U4" s="11">
+        <v>15028120.73</v>
+      </c>
+      <c r="V4" s="11">
+        <v>-221700582.75999999</v>
+      </c>
+      <c r="W4" s="9">
+        <v>-495185127.86000001</v>
+      </c>
+      <c r="X4" s="9">
+        <v>-2304139391.8200002</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>1712689783.8399999</v>
+      </c>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5">
+        <f>A4-1</f>
+        <v>2017</v>
+      </c>
+      <c r="B5" s="9">
+        <v>11789073516.690001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>432048433.19</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4408748773.7700005</v>
+      </c>
+      <c r="E5" s="9">
+        <v>58490158.609999999</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F13" si="0">C5+D5</f>
+        <v>4840797206.96</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G13" si="1">B5/((F5+F6)/2)</f>
+        <v>2.3970302521249183</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H13" si="2">360/G5</f>
+        <v>150.1858391986782</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" ref="I5:I13" si="3">E5+K5+M5+N5+O5+P5+S5+T5+V5+W5+X5+Y5+Q5+R5+U5+Z5</f>
+        <v>1244412201.1800001</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:J13" si="4">I5-F5</f>
+        <v>-3596385005.7799997</v>
+      </c>
+      <c r="K5" s="9">
+        <v>29956438.440000001</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L13" si="5">K5/E5</f>
+        <v>0.51216203121867376</v>
+      </c>
+      <c r="M5" s="9">
+        <v>197938163.75</v>
+      </c>
+      <c r="N5" s="9">
+        <v>59049996.5</v>
+      </c>
+      <c r="O5" s="9">
+        <v>11177737.220000001</v>
+      </c>
+      <c r="P5" s="9">
+        <v>238205.34</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9">
+        <v>-850000</v>
+      </c>
+      <c r="S5" s="9">
+        <v>484728351.18000001</v>
+      </c>
+      <c r="T5" s="9">
+        <v>-51846083.219999999</v>
+      </c>
+      <c r="U5" s="9">
+        <v>4772174.0599999996</v>
+      </c>
+      <c r="V5" s="9">
+        <v>-17777905.27</v>
+      </c>
+      <c r="W5" s="9">
+        <v>8657711.1099999994</v>
+      </c>
+      <c r="X5" s="9">
+        <v>284052413.99000001</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>174990223.30000001</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>834616.17</v>
+      </c>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6">
+        <f>A5-1</f>
+        <v>2016</v>
+      </c>
+      <c r="B6" s="9">
+        <v>9232749388.8799992</v>
+      </c>
+      <c r="C6" s="9">
+        <v>195613019.53999999</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4799989215.0500002</v>
+      </c>
+      <c r="E6" s="9">
+        <v>22468439.190000001</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>4995602234.5900002</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3415657186842211</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>153.74328259396117</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="3"/>
+        <v>-1990157904.76</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="4"/>
+        <v>-6985760139.3500004</v>
+      </c>
+      <c r="K6" s="9">
+        <v>164488091.91</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="5"/>
+        <v>7.3208508396617287</v>
+      </c>
+      <c r="M6" s="9">
+        <v>181260911.65000001</v>
+      </c>
+      <c r="N6" s="9">
+        <v>56205820.43</v>
+      </c>
+      <c r="O6" s="9">
+        <v>646321.86</v>
+      </c>
+      <c r="P6" s="9">
+        <v>627516.66</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9">
+        <v>239765940.99000001</v>
+      </c>
+      <c r="T6" s="9">
+        <v>-25282857.18</v>
+      </c>
+      <c r="U6" s="9">
+        <v>-600825.84</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-13337307.199999999</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-148611570.27000001</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-2550540994.3600001</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>53077878.520000003</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>29674728.879999999</v>
+      </c>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7">
+        <f t="shared" ref="A7:A11" si="6">A6-1</f>
+        <v>2015</v>
+      </c>
+      <c r="B7" s="9">
+        <v>7560816182.5100002</v>
+      </c>
+      <c r="C7" s="9">
+        <v>52297676.369999997</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2838062302.4499998</v>
+      </c>
+      <c r="E7" s="9">
+        <v>18458522</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>2890359978.8199997</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2199598032847141</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>111.80263791888343</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="3"/>
+        <v>-532545506.2100001</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="4"/>
+        <v>-3422905485.0299997</v>
+      </c>
+      <c r="K7" s="9">
+        <v>70043433.900000006</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
+        <v>3.7946393486975829</v>
+      </c>
+      <c r="M7" s="9">
+        <v>192350081.12</v>
+      </c>
+      <c r="N7" s="9">
+        <v>36626572.689999998</v>
+      </c>
+      <c r="O7" s="9">
+        <v>81615.12</v>
+      </c>
+      <c r="P7" s="9">
+        <v>98784.22</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9">
+        <v>328135912.69999999</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1835475.81</v>
+      </c>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9">
+        <v>-6806677.5999999996</v>
+      </c>
+      <c r="W7" s="9">
+        <v>-17185568.890000001</v>
+      </c>
+      <c r="X7" s="9">
+        <v>-1394007182.95</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>223569404.34999999</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>14254121.32</v>
+      </c>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8">
+        <f>A7-1</f>
+        <v>2014</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5208091770.6199999</v>
+      </c>
+      <c r="C8" s="9">
+        <v>35516097.549999997</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1770341668.21</v>
+      </c>
+      <c r="E8" s="9">
+        <v>15880211.34</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>1805857765.76</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5492403085441779</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>79.134091756785025</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="3"/>
+        <v>-554650716.37000012</v>
+      </c>
+      <c r="J8" s="9">
+        <f>I8-F8</f>
+        <v>-2360508482.1300001</v>
+      </c>
+      <c r="K8" s="9">
+        <v>78913357.269999996</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="5"/>
+        <v>4.9692888577136527</v>
+      </c>
+      <c r="M8" s="9">
+        <v>162964970.91999999</v>
+      </c>
+      <c r="N8" s="9">
+        <v>11364414.529999999</v>
+      </c>
+      <c r="O8" s="9">
+        <v>596315.56000000006</v>
+      </c>
+      <c r="P8" s="9">
+        <v>2699692.81</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9">
+        <v>261776452.09999999</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9">
+        <v>-10538299.060000001</v>
+      </c>
+      <c r="W8" s="9">
+        <v>-34160295.140000001</v>
+      </c>
+      <c r="X8" s="9">
+        <v>-1116160298.97</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>53092587.509999998</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>18920174.760000002</v>
+      </c>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9">
+        <f t="shared" si="6"/>
+        <v>2013</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3192701967.0799999</v>
+      </c>
+      <c r="C9" s="9">
+        <v>52690668.960000001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>431104965.57999998</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5459449.4000000004</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>483795634.53999996</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>7.659485139004544</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>47.000548139556415</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="3"/>
+        <v>-428603715.73000002</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="4"/>
+        <v>-912399350.26999998</v>
+      </c>
+      <c r="K9" s="9">
+        <v>8659917.5299999993</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5862254406094503</v>
+      </c>
+      <c r="M9" s="9">
+        <v>60768544.579999998</v>
+      </c>
+      <c r="N9" s="9">
+        <v>7524731.7300000004</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9">
+        <v>33325.85</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9">
+        <v>143852727.03</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9">
+        <v>-3154045.81</v>
+      </c>
+      <c r="W9" s="9">
+        <v>-206286137.05000001</v>
+      </c>
+      <c r="X9" s="9">
+        <v>-288663679.68000001</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>-186871463.80000001</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>30072914.489999998</v>
+      </c>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10">
+        <f>A9-1</f>
+        <v>2012</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2234623152.98</v>
+      </c>
+      <c r="C10" s="9">
+        <v>28945010.789999999</v>
+      </c>
+      <c r="D10" s="9">
+        <v>320919035.22000003</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2395768.89</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>349864046.01000005</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8899765953547369</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>40.495044743774706</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="3"/>
+        <v>-150329914.44999999</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="4"/>
+        <v>-500193960.46000004</v>
+      </c>
+      <c r="K10" s="9">
+        <v>10385228.449999999</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
+        <v>4.3348206470783577</v>
+      </c>
+      <c r="M10" s="9">
+        <v>33542649.300000001</v>
+      </c>
+      <c r="N10" s="9">
+        <v>6826474.54</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9">
+        <v>1065346.58</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9">
+        <v>58593037.789999999</v>
+      </c>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9">
+        <v>-207800.46</v>
+      </c>
+      <c r="V10" s="9">
+        <v>-1998538.88</v>
+      </c>
+      <c r="W10" s="9">
+        <v>-95900005.650000006</v>
+      </c>
+      <c r="X10" s="9">
+        <v>-236359552.91</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>54937035.93</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>16390441.970000001</v>
+      </c>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75">
+      <c r="A11">
+        <f t="shared" si="6"/>
+        <v>2011</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1526021238.48</v>
+      </c>
+      <c r="C11" s="9">
+        <v>25842313.300000001</v>
+      </c>
+      <c r="D11" s="9">
+        <v>127022332.72</v>
+      </c>
+      <c r="E11" s="9">
+        <v>7288648.5999999996</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>152864646.02000001</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>14.726195677233045</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>24.44623227141863</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="3"/>
+        <v>37527446.98999998</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="4"/>
+        <v>-115337199.03000003</v>
+      </c>
+      <c r="K11" s="9">
+        <v>4212918.57</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.57801093195794906</v>
+      </c>
+      <c r="M11" s="9">
+        <v>15220897.67</v>
+      </c>
+      <c r="N11" s="9">
+        <v>4153937.85</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="15">
+        <v>28069059.75</v>
+      </c>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9">
+        <v>105433.97</v>
+      </c>
+      <c r="V11" s="9">
+        <v>-1115462.19</v>
+      </c>
+      <c r="W11" s="9">
+        <v>-102470426.26000001</v>
+      </c>
+      <c r="X11" s="9">
+        <v>-250416750.28</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>332479189.31</v>
+      </c>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12">
+        <f>A11-1</f>
+        <v>2010</v>
+      </c>
+      <c r="B12" s="9">
+        <v>524201146.48000002</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4870000</v>
+      </c>
+      <c r="D12" s="9">
+        <v>49517963.130000003</v>
+      </c>
+      <c r="E12" s="9">
+        <v>5743026.0199999996</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>54387963.130000003</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0897368472833361E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>7073.0572287278701</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="3"/>
+        <v>44746084.100000001</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="4"/>
+        <v>-9641879.0300000012</v>
+      </c>
+      <c r="K12" s="9">
+        <v>715772.4</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1246333200489313</v>
+      </c>
+      <c r="M12" s="9">
+        <v>13779522.529999999</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1918598.32</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9">
+        <v>10976370.67</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9">
+        <v>83600.850000000006</v>
+      </c>
+      <c r="V12" s="9">
+        <v>-315387.42</v>
+      </c>
+      <c r="W12" s="9">
+        <v>-2251888.34</v>
+      </c>
+      <c r="X12" s="9">
+        <v>-36766545.869999997</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>50863014.939999998</v>
+      </c>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="9">
+        <f>SUM(B4:B12)</f>
+        <v>50418566775.100014</v>
+      </c>
+      <c r="C13" s="9">
+        <f>SUM(C4:C12)</f>
+        <v>932905716.93999982</v>
+      </c>
+      <c r="D13" s="9">
+        <f>SUM(D4:D12)</f>
+        <v>19611065811.140007</v>
+      </c>
+      <c r="E13" s="9">
+        <f>SUM(E4:E12)</f>
+        <v>250260952.59</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>20543971528.080006</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9083563717158265</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>73.34430769421779</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="3"/>
+        <v>-1188870921.9500003</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="4"/>
+        <v>-21732842450.030006</v>
+      </c>
+      <c r="K13" s="9">
+        <f>SUM(K4:K12)</f>
+        <v>1819114146.5200002</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="5"/>
+        <v>7.2688692650356712</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" ref="M13:Z13" si="7">SUM(M4:M12)</f>
+        <v>1088394269.6199999</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="7"/>
+        <v>259399158.25999999</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="7"/>
+        <v>21607594.59</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="7"/>
+        <v>-6395930.8199999984</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="7"/>
+        <v>-629658.09</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="7"/>
+        <v>-850000</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="7"/>
+        <v>2163700874.4700003</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="7"/>
+        <v>-118488186.5</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="7"/>
+        <v>19180703.309999999</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="7"/>
+        <v>-276744206.19</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="7"/>
+        <v>-1093393308.3499999</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" si="7"/>
+        <v>-7893001982.8500004</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" si="7"/>
+        <v>2468827653.9000001</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="7"/>
+        <v>110146997.59</v>
+      </c>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
